--- a/excel/Invoice.xlsx
+++ b/excel/Invoice.xlsx
@@ -191,41 +191,41 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>ritik sharma</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>11234AS3</t>
+          <t>24AAACK7300E1Z5</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Activa 125 Disc pro</t>
+          <t>Ertiga</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>GJ27DW3033</t>
+          <t>GJ23DW3033</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>8230</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>411.5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>8641.5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Invoice.xlsx
+++ b/excel/Invoice.xlsx
@@ -122,7 +122,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -184,50 +184,6 @@
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>SI0000001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>24AAACK7300E1Z5</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Ertiga</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>GJ23DW3033</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
